--- a/Assets/Editor/JsonUtility/JsonUtility/Stage2/2-3-1.xlsx
+++ b/Assets/Editor/JsonUtility/JsonUtility/Stage2/2-3-1.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10917"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
   <workbookPr codeName="현재_통합_문서"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/uisoo/Documents/GitHub/Project-Caterpillar/Assets/Editor/JsonUtility/JsonUtility/Stage2/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\UISU\Documents\GitHub\Project_Caterpillar\Assets\Editor\JsonUtility\JsonUtility\Stage2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83D34AD7-20A3-B94E-A25C-F95235F5A51B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CCB73B62-21AD-4211-8407-BCF490023028}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15640" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" firstSheet="1" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="!Sample" sheetId="1" r:id="rId1"/>
@@ -3897,7 +3897,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="466" uniqueCount="153">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="472" uniqueCount="160">
   <si>
     <t>파일명</t>
   </si>
@@ -3973,10 +3973,6 @@
   </si>
   <si>
     <t>간신배</t>
-  </si>
-  <si>
-    <t>Hold, 0.1</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>2-3 main-1-1</t>
@@ -4129,6 +4125,1258 @@
     </r>
   </si>
   <si>
+    <t>2-3, 골목대장</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">(분명 이 근처는 무슨 패거리의 보금자리라고 했지. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="A고딕12"/>
+        <charset val="129"/>
+      </rPr>
+      <t>···</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Malgun Gothic"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>근방을 잘 알지도 모르겠어.)</t>
+    </r>
+  </si>
+  <si>
+    <t>골목대장</t>
+  </si>
+  <si>
+    <r>
+      <t>너는</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="A고딕12"/>
+        <charset val="129"/>
+      </rPr>
+      <t>···.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Malgun Gothic"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve"> 어제 이 근처에서 알짱거리던 놈?</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>(알짱</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="A고딕12"/>
+        <charset val="129"/>
+      </rPr>
+      <t>···.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Malgun Gothic"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>···</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Malgun Gothic"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>대충 맞는 것 같기도 해. 도움이 필요해. 밖을 나가고 싶어. 방법을 알아?</t>
+    </r>
+  </si>
+  <si>
+    <t>어허! 어딜 감히! 형님께서 왜 네 까짓걸 도와줘야 한다는 거냐!</t>
+  </si>
+  <si>
+    <t>이~자식이 정신을 못 차리고!</t>
+  </si>
+  <si>
+    <t>시끄럽다.</t>
+  </si>
+  <si>
+    <t>헤헤, 네.</t>
+  </si>
+  <si>
+    <t>우리는 구역 밖을 멀리 벗어나지 않아. 밖을 나가는 방법 따위 알 필요도 없고. </t>
+  </si>
+  <si>
+    <t>알겠으면 더 이상 이 근처 구역에서 알짱거리지 마.</t>
+  </si>
+  <si>
+    <t>(쫓겨났다.)</t>
+  </si>
+  <si>
+    <t>헤헤, 형님!</t>
+  </si>
+  <si>
+    <t>(알랑방귀를 뀌느라 바빠 보인다.)</t>
+  </si>
+  <si>
+    <r>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="A고딕12"/>
+        <charset val="129"/>
+      </rPr>
+      <t>···</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Malgun Gothic"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>무언가 알 것 같은 행색은 아니다.)</t>
+    </r>
+  </si>
+  <si>
+    <t>2-3, 간신배</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>2-3, 비만</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>저기</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="A고딕12"/>
+        <charset val="129"/>
+      </rPr>
+      <t>···.</t>
+    </r>
+  </si>
+  <si>
+    <t>뭐야! 이곳은 내 구역이야! 저리 안 꺼져? 내 펀치 맛 좀 보고 싶은 가보지?!</t>
+  </si>
+  <si>
+    <t>그 말은 어제도 했어.</t>
+  </si>
+  <si>
+    <r>
+      <t>어엇</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="A고딕12"/>
+        <charset val="129"/>
+      </rPr>
+      <t>···</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Malgun Gothic"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>, 그래? 그럼</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="A고딕12"/>
+        <charset val="129"/>
+      </rPr>
+      <t>···.</t>
+    </r>
+  </si>
+  <si>
+    <t>생각나면 말해. 그 전에 혹시 이 곳을 나가는 방법을 알고 있어?</t>
+  </si>
+  <si>
+    <r>
+      <t>···</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Malgun Gothic"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>나가는 방법? 왜 그런 걸 알려고 하는 거야?</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">···! </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Malgun Gothic"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>알아?</t>
+    </r>
+  </si>
+  <si>
+    <t>아~니. 내 말은 뭐 하러 이 곳을 벗어나려고 하냐는 거야.</t>
+  </si>
+  <si>
+    <t>이 곳에 있으면 밥도 물도 알아서 줘. 아침마다 근처를 알랑거려야 하는 건 귀찮지만, 돌아다니며 사냥을 하고 백날천날 뛰어다니는 것보다야 훨씬 편한 생이지.</t>
+  </si>
+  <si>
+    <t>왜 네가 나가려는지는 몰라도 고생 해봤자 여기에서 주는 것만 못하다는 말이야.</t>
+  </si>
+  <si>
+    <r>
+      <t>···</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Malgun Gothic"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>그러니, 헛고생하지 말고 줄이나 잘 타는 건 어때? 네가 이 곳에 처음 와서 뭘 잘 모르는 것 같아서 하는 말이야.</t>
+    </r>
+  </si>
+  <si>
+    <t>헛! 하지만, 이곳의 줄은 내거야! 넘보지 말라고!</t>
+  </si>
+  <si>
+    <t>관심 없어. 나는 나갈 거야.</t>
+  </si>
+  <si>
+    <r>
+      <t>···</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Malgun Gothic"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>뭐, 그럼 그러던가. 이봐, 그것보다 내가 새로운 말을 생각해봤는데 말이야</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="A고딕12"/>
+        <charset val="129"/>
+      </rPr>
+      <t>···!</t>
+    </r>
+  </si>
+  <si>
+    <t>(들을 말은 다 들은 것 같다.)</t>
+  </si>
+  <si>
+    <r>
+      <t>···</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Malgun Gothic"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>어디가?!</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>저기</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="A고딕12"/>
+        <charset val="129"/>
+      </rPr>
+      <t>···?</t>
+    </r>
+  </si>
+  <si>
+    <t>(자고 있는 듯하다.)</t>
+  </si>
+  <si>
+    <t>(몸을 흔들어 보았지만 응답이 없다.)</t>
+  </si>
+  <si>
+    <t>(때려서 깨워본다.)</t>
+  </si>
+  <si>
+    <t>판초</t>
+  </si>
+  <si>
+    <r>
+      <t>쿨</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="A고딕12"/>
+        <charset val="129"/>
+      </rPr>
+      <t>···,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Malgun Gothic"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve"> 크억</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="A고딕12"/>
+        <charset val="129"/>
+      </rPr>
+      <t>···</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Malgun Gothic"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>컥</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="A고딕12"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">···! </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Malgun Gothic"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>드르렁</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="A고딕12"/>
+        <charset val="129"/>
+      </rPr>
+      <t>···.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>···</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Malgun Gothic"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>전혀 효과가 없네. 더 때려볼까</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="A고딕12"/>
+        <charset val="129"/>
+      </rPr>
+      <t>···</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Malgun Gothic"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>?</t>
+    </r>
+  </si>
+  <si>
+    <t>2-3, 판초</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>(나중에 오기로 한다.)</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <r>
+      <t>···</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Malgun Gothic"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>역시 그만두자.</t>
+    </r>
+  </si>
+  <si>
+    <t>판초</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>아이</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>2-3, 솜털</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>솜털</t>
+  </si>
+  <si>
+    <t>우와 안녕! 나랑 놀래?</t>
+  </si>
+  <si>
+    <r>
+      <t>···</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Malgun Gothic"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>아니.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>···</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Malgun Gothic"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>혹시 밖을 나가는 방법을 알아?</t>
+    </r>
+  </si>
+  <si>
+    <t>밖? 앞마당?</t>
+  </si>
+  <si>
+    <r>
+      <t>···</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Malgun Gothic"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>모르면 됐어.</t>
+    </r>
+  </si>
+  <si>
+    <t>아니야! 내가 찾아줄래!</t>
+  </si>
+  <si>
+    <r>
+      <t>으</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="A고딕12"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">···, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Malgun Gothic"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>으음</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="A고딕12"/>
+        <charset val="129"/>
+      </rPr>
+      <t>···. ···</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Malgun Gothic"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>아! 혹시 엄마가 간 곳이야?</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>잠든 사이에 엄마가 밥을 찾으러 간 것 같은데</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="A고딕12"/>
+        <charset val="129"/>
+      </rPr>
+      <t>···</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Malgun Gothic"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve"> 거기 맞지?! 내가 맞췄지?</t>
+    </r>
+  </si>
+  <si>
+    <t>엄마가 있는 곳이면 나도 갈래! 응?</t>
+  </si>
+  <si>
+    <r>
+      <t>···</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Malgun Gothic"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>아니야. 밖에는 그런 것들은 살지 않아.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>아니야? 으음</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="A고딕12"/>
+        <charset val="129"/>
+      </rPr>
+      <t>···</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Malgun Gothic"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve"> 알겠어! 아! 내일은 나랑 같이 놀 수 있으면 좋겠다!</t>
+    </r>
+  </si>
+  <si>
+    <t>안녕, 또 와!</t>
+  </si>
+  <si>
+    <t>2-3, 무언가</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>(무언가가 치워지고 없다.)</t>
+  </si>
+  <si>
+    <t>붕대</t>
+  </si>
+  <si>
+    <r>
+      <t>(죽여</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFA6A6A6"/>
+        <rFont val="A고딕12"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">··· </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFA6A6A6"/>
+        <rFont val="Malgun Gothic"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>복수를</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFA6A6A6"/>
+        <rFont val="A고딕12"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">··· </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFA6A6A6"/>
+        <rFont val="Malgun Gothic"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>중얼중얼</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFA6A6A6"/>
+        <rFont val="A고딕12"/>
+        <charset val="129"/>
+      </rPr>
+      <t>···.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFA6A6A6"/>
+        <rFont val="Malgun Gothic"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>(중얼중얼</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFA6A6A6"/>
+        <rFont val="A고딕12"/>
+        <charset val="129"/>
+      </rPr>
+      <t>···.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFA6A6A6"/>
+        <rFont val="Malgun Gothic"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="A고딕12"/>
+        <charset val="129"/>
+      </rPr>
+      <t>···</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Malgun Gothic"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>아직은 대화가 어려울 것 같다.)</t>
+    </r>
+  </si>
+  <si>
+    <t>2-3, 붕대</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>2-3, 쓰레기</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>쓰레기</t>
+  </si>
+  <si>
+    <t>안녕, 친구! 아직 떠나지 않았구나!</t>
+  </si>
+  <si>
+    <r>
+      <t>···</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Malgun Gothic"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">어쩌다 보니 그렇게 됐어. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="A고딕12"/>
+        <charset val="129"/>
+      </rPr>
+      <t>···</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Malgun Gothic"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>하지만, 곧 여기를 떠날 거야. 그 사실은 변하지 않아.</t>
+    </r>
+  </si>
+  <si>
+    <t>그래, 네가 그렇다면 어쩔 수 없지.</t>
+  </si>
+  <si>
+    <t>만난지 얼마 지나지는 않았지만 나는 꼭 해낼 수 있을 거라고 생각해!</t>
+  </si>
+  <si>
+    <r>
+      <t>그래도 조금이라도 더 볼 수 있게 된 건 기쁜 걸. 이런, 네가 나가지 못했으면 좋겠다는 건 아니고! 뭐, 물론 아쉽긴 하지만! 음</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="A고딕12"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">··· </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Malgun Gothic"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>혹시 내가 도울 일이 있을까?</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>···</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Malgun Gothic"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>밖을 나갈 방법을 찾고 있어. 혹시 알아?</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>밖을 나가는 방법? 글쎄</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="A고딕12"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">··· </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Malgun Gothic"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>나는 어느 순간 눈을 떠보니 이 곳이었어서</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="A고딕12"/>
+        <charset val="129"/>
+      </rPr>
+      <t>···.</t>
+    </r>
+  </si>
+  <si>
+    <t>미안, 도움이 되질 못하겠네. 하지만 혹시 다른 도움이 필요해지면 언제든지 말해!</t>
+  </si>
+  <si>
+    <t>2-3, 개척자</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>안녕! 내가 빌려준 전설의 풀 어땠어? 효과 좋았지?</t>
+  </si>
+  <si>
+    <t>이런, 보아하니 또 다른 도움이 필요한 것 같은데?</t>
+  </si>
+  <si>
+    <r>
+      <t>그</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="A고딕12"/>
+        <charset val="129"/>
+      </rPr>
+      <t>···</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Malgun Gothic"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>···</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Malgun Gothic"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>도와줘. 밖으로 나가는 방법을 알고 싶어.</t>
+    </r>
+  </si>
+  <si>
+    <t>미안! 그건 나도 잘 몰라.</t>
+  </si>
+  <si>
+    <r>
+      <t>···</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Malgun Gothic"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>하-지만! 그 방법을 알 만한 사람은 알고 있지!</t>
+    </r>
+  </si>
+  <si>
+    <t>알려줘!</t>
+  </si>
+  <si>
+    <t>맨입으로?</t>
+  </si>
+  <si>
+    <r>
+      <t>···</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Malgun Gothic"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>지금 당장은 네게 줄 수 있는 것이 없어. 하지만, 내가 만약 밖으로 나간다면</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="A고딕12"/>
+        <charset val="129"/>
+      </rPr>
+      <t>···.</t>
+    </r>
+  </si>
+  <si>
+    <t>다시 돌아오겠다고? 이 곳에?</t>
+  </si>
+  <si>
+    <t>하하! 장난이야! 놀랐어? 걱정할 필요 없어. 물론 알려 줘야지!</t>
+  </si>
+  <si>
+    <r>
+      <t>···</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Malgun Gothic"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>다만!</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>다만</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="A고딕12"/>
+        <charset val="129"/>
+      </rPr>
+      <t>···</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Malgun Gothic"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>?</t>
+    </r>
+  </si>
+  <si>
+    <t>지금 당장 급할 건 없지만, 나도 밖에 흥미를 가지고 있기는 하거든.</t>
+  </si>
+  <si>
+    <r>
+      <t>···</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Malgun Gothic"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>좋아. 그럴게.</t>
+    </r>
+  </si>
+  <si>
+    <t>좋아! 거래 성립이네.</t>
+  </si>
+  <si>
+    <t>그 고주가 한때 밖으로 나가는 방법을 수소문하고 다녔거든. 그래, 마치 너처럼.</t>
+  </si>
+  <si>
+    <t>며칠동안 근방에서 털끝 하나 보이지 않았던 걸 보면, 아마 밖으로 나가는 것에도 성공했을 거야. 왜 다시 돌아온 건지는 몰라도</t>
+  </si>
+  <si>
+    <r>
+      <t>그 뒤로는 쭉 저 상태였지만</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="A고딕12"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">···, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Malgun Gothic"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>그 전까지는 정신이 꽤나 또렷했어. 나가는 방법도 어딘 가에 분명 적어 놨었을 거야.</t>
+    </r>
+  </si>
+  <si>
+    <t>이걸 가져가. 웬만한 방법으론 꿈쩍도 안 하거든.</t>
+  </si>
+  <si>
+    <t>(스토리 필드) : 수상한 편지 아이템을 클로즈업한 그림이 뜬다.</t>
+  </si>
+  <si>
+    <t>(수상하게 기분 좋은 냄새가 난다.)</t>
+  </si>
+  <si>
+    <t>(스토리 필드) : 수상한 편지 아이템을 클로즈업한 그림이 사라진다.</t>
+  </si>
+  <si>
+    <t>이게 뭐야?</t>
+  </si>
+  <si>
+    <t>하하! 혹여나 중간에 열어볼 생각은 하지 말고!</t>
+  </si>
+  <si>
+    <t>수상한편지:Add</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Npc들 인터랙션 변경</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>FadeIn</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Hold, -1, name=Stage 2/2-3/Rain</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>(컷 씬) &gt; (스테이지 필드)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Hold, Reset</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Hold, 0.1, name=Stage 2/2-3/Get </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="굴림"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>수상한 편지</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Hold, 0.1, name=Stage 2/2-3/Remove </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="굴림"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>수상한</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="굴림"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>편지</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Hold, -1, name=Stage 2/2-3/Npc Interact </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>변경</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>Hold, 3, name=Stage 2/2-3/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>웅덩이에 비침</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>Hold, 1.5, name=Stage 2/2-3/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>웅덩이에</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>비친 고양이</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
     <r>
       <t>정보를 얻어야 해. &lt;b&gt;</t>
     </r>
@@ -4141,7 +5389,7 @@
         <family val="2"/>
         <charset val="129"/>
       </rPr>
-      <t>도움을 얻을 만한 곳&lt;b/&gt;</t>
+      <t>도움을 얻을 만한 곳&lt;/b&gt;</t>
     </r>
     <r>
       <rPr>
@@ -4197,25 +5445,12 @@
         <family val="2"/>
         <charset val="129"/>
       </rPr>
-      <t>내가 찾아가야만 해.&lt;b/&gt;</t>
+      <t>내가 찾아가야만 해.&lt;/b&gt;</t>
     </r>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>2-3, 골목대장</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">(분명 이 근처는 무슨 패거리의 보금자리라고 했지. </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <rFont val="A고딕12"/>
-        <charset val="129"/>
-      </rPr>
+    <r>
       <t>···</t>
     </r>
     <r>
@@ -4226,24 +5461,18 @@
         <family val="2"/>
         <charset val="129"/>
       </rPr>
-      <t>근방을 잘 알지도 모르겠어.)</t>
-    </r>
-  </si>
-  <si>
-    <t>골목대장</t>
-  </si>
-  <si>
-    <r>
-      <t>너는</t>
+      <t>하지만 그 &lt;b&gt;</t>
     </r>
     <r>
       <rPr>
-        <sz val="9"/>
+        <b/>
+        <sz val="10"/>
         <color rgb="FF000000"/>
-        <rFont val="A고딕12"/>
+        <rFont val="Malgun Gothic"/>
+        <family val="2"/>
         <charset val="129"/>
       </rPr>
-      <t>···.</t>
+      <t>골목에 사는 별종&lt;/b&gt;</t>
     </r>
     <r>
       <rPr>
@@ -4253,12 +5482,24 @@
         <family val="2"/>
         <charset val="129"/>
       </rPr>
-      <t xml:space="preserve"> 어제 이 근처에서 알짱거리던 놈?</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>(알짱</t>
+      <t>이라면 또 알지도 모르지.</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>(&lt;b&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Malgun Gothic"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>골목에 사는 별종&lt;/b&gt;</t>
     </r>
     <r>
       <rPr>
@@ -4279,10 +5520,11 @@
       </rPr>
       <t>)</t>
     </r>
-  </si>
-  <si>
-    <r>
-      <t>···</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>&lt;b&gt;밖으로 나갈 방법을 알게 된다면 그때 내게도 알려줘&lt;/b&gt;</t>
     </r>
     <r>
       <rPr>
@@ -4292,33 +5534,13 @@
         <family val="2"/>
         <charset val="129"/>
       </rPr>
-      <t>대충 맞는 것 같기도 해. 도움이 필요해. 밖을 나가고 싶어. 방법을 알아?</t>
-    </r>
-  </si>
-  <si>
-    <t>어허! 어딜 감히! 형님께서 왜 네 까짓걸 도와줘야 한다는 거냐!</t>
-  </si>
-  <si>
-    <t>이~자식이 정신을 못 차리고!</t>
-  </si>
-  <si>
-    <t>시끄럽다.</t>
-  </si>
-  <si>
-    <t>헤헤, 네.</t>
-  </si>
-  <si>
-    <t>우리는 구역 밖을 멀리 벗어나지 않아. 밖을 나가는 방법 따위 알 필요도 없고. </t>
-  </si>
-  <si>
-    <t>알겠으면 더 이상 이 근처 구역에서 알짱거리지 마.</t>
-  </si>
-  <si>
-    <t>(쫓겨났다.)</t>
-  </si>
-  <si>
-    <r>
-      <t>(&lt;b&gt;</t>
+      <t>.</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>내가 알고 있는 정보는 이래. &lt;b&gt;</t>
     </r>
     <r>
       <rPr>
@@ -4329,16 +5551,7 @@
         <family val="2"/>
         <charset val="129"/>
       </rPr>
-      <t>골목에 사는 별종&lt;b/&gt;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <rFont val="A고딕12"/>
-        <charset val="129"/>
-      </rPr>
-      <t>···.</t>
+      <t>공사장 쪽에 항상 정신 못 차리는 고주&lt;/b&gt;</t>
     </r>
     <r>
       <rPr>
@@ -4348,13 +5561,13 @@
         <family val="2"/>
         <charset val="129"/>
       </rPr>
-      <t>)</t>
+      <t>, 너도 봤지?</t>
     </r>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <r>
-      <t>···</t>
+      <t>&lt;b&gt;‘수상한 편지’&lt;/b&gt;</t>
     </r>
     <r>
       <rPr>
@@ -4364,835 +5577,13 @@
         <family val="2"/>
         <charset val="129"/>
       </rPr>
-      <t>하지만 그 &lt;b&gt;</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Malgun Gothic"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t>골목에 사는 별종&lt;b/&gt;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Malgun Gothic"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t>이라면 또 알지도 모르지.</t>
+      <t>를 획득하였다.</t>
     </r>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>헤헤, 형님!</t>
-  </si>
-  <si>
-    <t>(알랑방귀를 뀌느라 바빠 보인다.)</t>
-  </si>
-  <si>
-    <r>
-      <t>(</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <rFont val="A고딕12"/>
-        <charset val="129"/>
-      </rPr>
-      <t>···</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Malgun Gothic"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t>무언가 알 것 같은 행색은 아니다.)</t>
-    </r>
-  </si>
-  <si>
-    <t>2-3, 간신배</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>2-3, 비만</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>저기</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <rFont val="A고딕12"/>
-        <charset val="129"/>
-      </rPr>
-      <t>···.</t>
-    </r>
-  </si>
-  <si>
-    <t>뭐야! 이곳은 내 구역이야! 저리 안 꺼져? 내 펀치 맛 좀 보고 싶은 가보지?!</t>
-  </si>
-  <si>
-    <t>그 말은 어제도 했어.</t>
-  </si>
-  <si>
-    <r>
-      <t>어엇</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <rFont val="A고딕12"/>
-        <charset val="129"/>
-      </rPr>
-      <t>···</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Malgun Gothic"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t>, 그래? 그럼</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <rFont val="A고딕12"/>
-        <charset val="129"/>
-      </rPr>
-      <t>···.</t>
-    </r>
-  </si>
-  <si>
-    <t>생각나면 말해. 그 전에 혹시 이 곳을 나가는 방법을 알고 있어?</t>
-  </si>
-  <si>
-    <r>
-      <t>···</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Malgun Gothic"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t>나가는 방법? 왜 그런 걸 알려고 하는 거야?</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">···! </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Malgun Gothic"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t>알아?</t>
-    </r>
-  </si>
-  <si>
-    <t>아~니. 내 말은 뭐 하러 이 곳을 벗어나려고 하냐는 거야.</t>
-  </si>
-  <si>
-    <t>이 곳에 있으면 밥도 물도 알아서 줘. 아침마다 근처를 알랑거려야 하는 건 귀찮지만, 돌아다니며 사냥을 하고 백날천날 뛰어다니는 것보다야 훨씬 편한 생이지.</t>
-  </si>
-  <si>
-    <t>왜 네가 나가려는지는 몰라도 고생 해봤자 여기에서 주는 것만 못하다는 말이야.</t>
-  </si>
-  <si>
-    <r>
-      <t>···</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Malgun Gothic"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t>그러니, 헛고생하지 말고 줄이나 잘 타는 건 어때? 네가 이 곳에 처음 와서 뭘 잘 모르는 것 같아서 하는 말이야.</t>
-    </r>
-  </si>
-  <si>
-    <t>헛! 하지만, 이곳의 줄은 내거야! 넘보지 말라고!</t>
-  </si>
-  <si>
-    <t>관심 없어. 나는 나갈 거야.</t>
-  </si>
-  <si>
-    <r>
-      <t>···</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Malgun Gothic"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t>뭐, 그럼 그러던가. 이봐, 그것보다 내가 새로운 말을 생각해봤는데 말이야</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <rFont val="A고딕12"/>
-        <charset val="129"/>
-      </rPr>
-      <t>···!</t>
-    </r>
-  </si>
-  <si>
-    <t>(들을 말은 다 들은 것 같다.)</t>
-  </si>
-  <si>
-    <r>
-      <t>···</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Malgun Gothic"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t>어디가?!</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>저기</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <rFont val="A고딕12"/>
-        <charset val="129"/>
-      </rPr>
-      <t>···?</t>
-    </r>
-  </si>
-  <si>
-    <t>(자고 있는 듯하다.)</t>
-  </si>
-  <si>
-    <t>(몸을 흔들어 보았지만 응답이 없다.)</t>
-  </si>
-  <si>
-    <t>(때려서 깨워본다.)</t>
-  </si>
-  <si>
-    <t>판초</t>
-  </si>
-  <si>
-    <r>
-      <t>쿨</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <rFont val="A고딕12"/>
-        <charset val="129"/>
-      </rPr>
-      <t>···,</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Malgun Gothic"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve"> 크억</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <rFont val="A고딕12"/>
-        <charset val="129"/>
-      </rPr>
-      <t>···</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Malgun Gothic"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t>컥</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <rFont val="A고딕12"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve">···! </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Malgun Gothic"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t>드르렁</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <rFont val="A고딕12"/>
-        <charset val="129"/>
-      </rPr>
-      <t>···.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>···</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Malgun Gothic"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t>전혀 효과가 없네. 더 때려볼까</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <rFont val="A고딕12"/>
-        <charset val="129"/>
-      </rPr>
-      <t>···</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Malgun Gothic"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t>?</t>
-    </r>
-  </si>
-  <si>
-    <t>2-3, 판초</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>(나중에 오기로 한다.)</t>
-  </si>
-  <si>
-    <t>-</t>
-  </si>
-  <si>
-    <r>
-      <t>···</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Malgun Gothic"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t>역시 그만두자.</t>
-    </r>
-  </si>
-  <si>
-    <t>판초</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>아이</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>2-3, 솜털</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>솜털</t>
-  </si>
-  <si>
-    <t>우와 안녕! 나랑 놀래?</t>
-  </si>
-  <si>
-    <r>
-      <t>···</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Malgun Gothic"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t>아니.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>···</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Malgun Gothic"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t>혹시 밖을 나가는 방법을 알아?</t>
-    </r>
-  </si>
-  <si>
-    <t>밖? 앞마당?</t>
-  </si>
-  <si>
-    <r>
-      <t>···</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Malgun Gothic"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t>모르면 됐어.</t>
-    </r>
-  </si>
-  <si>
-    <t>아니야! 내가 찾아줄래!</t>
-  </si>
-  <si>
-    <r>
-      <t>으</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <rFont val="A고딕12"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve">···, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Malgun Gothic"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t>으음</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <rFont val="A고딕12"/>
-        <charset val="129"/>
-      </rPr>
-      <t>···. ···</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Malgun Gothic"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t>아! 혹시 엄마가 간 곳이야?</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>잠든 사이에 엄마가 밥을 찾으러 간 것 같은데</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <rFont val="A고딕12"/>
-        <charset val="129"/>
-      </rPr>
-      <t>···</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Malgun Gothic"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve"> 거기 맞지?! 내가 맞췄지?</t>
-    </r>
-  </si>
-  <si>
-    <t>엄마가 있는 곳이면 나도 갈래! 응?</t>
-  </si>
-  <si>
-    <r>
-      <t>···</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Malgun Gothic"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t>아니야. 밖에는 그런 것들은 살지 않아.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>아니야? 으음</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <rFont val="A고딕12"/>
-        <charset val="129"/>
-      </rPr>
-      <t>···</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Malgun Gothic"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve"> 알겠어! 아! 내일은 나랑 같이 놀 수 있으면 좋겠다!</t>
-    </r>
-  </si>
-  <si>
-    <t>안녕, 또 와!</t>
-  </si>
-  <si>
-    <t>2-3, 무언가</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>(무언가가 치워지고 없다.)</t>
-  </si>
-  <si>
-    <t>붕대</t>
-  </si>
-  <si>
-    <r>
-      <t>(죽여</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FFA6A6A6"/>
-        <rFont val="A고딕12"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve">··· </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFA6A6A6"/>
-        <rFont val="Malgun Gothic"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t>복수를</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FFA6A6A6"/>
-        <rFont val="A고딕12"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve">··· </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFA6A6A6"/>
-        <rFont val="Malgun Gothic"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t>중얼중얼</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FFA6A6A6"/>
-        <rFont val="A고딕12"/>
-        <charset val="129"/>
-      </rPr>
-      <t>···.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFA6A6A6"/>
-        <rFont val="Malgun Gothic"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t>)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>(중얼중얼</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FFA6A6A6"/>
-        <rFont val="A고딕12"/>
-        <charset val="129"/>
-      </rPr>
-      <t>···.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFA6A6A6"/>
-        <rFont val="Malgun Gothic"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t>)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>(</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <rFont val="A고딕12"/>
-        <charset val="129"/>
-      </rPr>
-      <t>···</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Malgun Gothic"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t>아직은 대화가 어려울 것 같다.)</t>
-    </r>
-  </si>
-  <si>
-    <t>2-3, 붕대</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>2-3, 쓰레기</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>쓰레기</t>
-  </si>
-  <si>
-    <t>안녕, 친구! 아직 떠나지 않았구나!</t>
-  </si>
-  <si>
-    <r>
-      <t>···</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Malgun Gothic"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve">어쩌다 보니 그렇게 됐어. </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <rFont val="A고딕12"/>
-        <charset val="129"/>
-      </rPr>
-      <t>···</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Malgun Gothic"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t>하지만, 곧 여기를 떠날 거야. 그 사실은 변하지 않아.</t>
-    </r>
-  </si>
-  <si>
-    <t>그래, 네가 그렇다면 어쩔 수 없지.</t>
-  </si>
-  <si>
-    <t>만난지 얼마 지나지는 않았지만 나는 꼭 해낼 수 있을 거라고 생각해!</t>
-  </si>
-  <si>
-    <r>
-      <t>그래도 조금이라도 더 볼 수 있게 된 건 기쁜 걸. 이런, 네가 나가지 못했으면 좋겠다는 건 아니고! 뭐, 물론 아쉽긴 하지만! 음</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <rFont val="A고딕12"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve">··· </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Malgun Gothic"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t>혹시 내가 도울 일이 있을까?</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>···</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Malgun Gothic"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t>밖을 나갈 방법을 찾고 있어. 혹시 알아?</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>밖을 나가는 방법? 글쎄</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <rFont val="A고딕12"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve">··· </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Malgun Gothic"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t>나는 어느 순간 눈을 떠보니 이 곳이었어서</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <rFont val="A고딕12"/>
-        <charset val="129"/>
-      </rPr>
-      <t>···.</t>
-    </r>
-  </si>
-  <si>
-    <t>미안, 도움이 되질 못하겠네. 하지만 혹시 다른 도움이 필요해지면 언제든지 말해!</t>
-  </si>
-  <si>
-    <t>2-3, 개척자</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>안녕! 내가 빌려준 전설의 풀 어땠어? 효과 좋았지?</t>
-  </si>
-  <si>
-    <t>이런, 보아하니 또 다른 도움이 필요한 것 같은데?</t>
-  </si>
-  <si>
-    <r>
-      <t>그</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <rFont val="A고딕12"/>
-        <charset val="129"/>
-      </rPr>
-      <t>···</t>
+    <r>
+      <t>&lt;b&gt;좋은 거&lt;/b&gt;</t>
     </r>
     <r>
       <rPr>
@@ -5204,273 +5595,10 @@
       </rPr>
       <t>.</t>
     </r>
-  </si>
-  <si>
-    <r>
-      <t>···</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Malgun Gothic"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t>도와줘. 밖으로 나가는 방법을 알고 싶어.</t>
-    </r>
-  </si>
-  <si>
-    <t>미안! 그건 나도 잘 몰라.</t>
-  </si>
-  <si>
-    <r>
-      <t>···</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Malgun Gothic"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t>하-지만! 그 방법을 알 만한 사람은 알고 있지!</t>
-    </r>
-  </si>
-  <si>
-    <t>알려줘!</t>
-  </si>
-  <si>
-    <t>맨입으로?</t>
-  </si>
-  <si>
-    <r>
-      <t>···</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Malgun Gothic"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t>지금 당장은 네게 줄 수 있는 것이 없어. 하지만, 내가 만약 밖으로 나간다면</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <rFont val="A고딕12"/>
-        <charset val="129"/>
-      </rPr>
-      <t>···.</t>
-    </r>
-  </si>
-  <si>
-    <t>다시 돌아오겠다고? 이 곳에?</t>
-  </si>
-  <si>
-    <t>하하! 장난이야! 놀랐어? 걱정할 필요 없어. 물론 알려 줘야지!</t>
-  </si>
-  <si>
-    <r>
-      <t>···</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Malgun Gothic"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t>다만!</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>다만</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <rFont val="A고딕12"/>
-        <charset val="129"/>
-      </rPr>
-      <t>···</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Malgun Gothic"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t>?</t>
-    </r>
-  </si>
-  <si>
-    <t>지금 당장 급할 건 없지만, 나도 밖에 흥미를 가지고 있기는 하거든.</t>
-  </si>
-  <si>
-    <r>
-      <t>···</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Malgun Gothic"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t>좋아. 그럴게.</t>
-    </r>
-  </si>
-  <si>
-    <t>좋아! 거래 성립이네.</t>
-  </si>
-  <si>
-    <t>그 고주가 한때 밖으로 나가는 방법을 수소문하고 다녔거든. 그래, 마치 너처럼.</t>
-  </si>
-  <si>
-    <t>며칠동안 근방에서 털끝 하나 보이지 않았던 걸 보면, 아마 밖으로 나가는 것에도 성공했을 거야. 왜 다시 돌아온 건지는 몰라도</t>
-  </si>
-  <si>
-    <r>
-      <t>그 뒤로는 쭉 저 상태였지만</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <rFont val="A고딕12"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve">···, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Malgun Gothic"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t>그 전까지는 정신이 꽤나 또렷했어. 나가는 방법도 어딘 가에 분명 적어 놨었을 거야.</t>
-    </r>
-  </si>
-  <si>
-    <t>이걸 가져가. 웬만한 방법으론 꿈쩍도 안 하거든.</t>
-  </si>
-  <si>
-    <t>(스토리 필드) : 수상한 편지 아이템을 클로즈업한 그림이 뜬다.</t>
-  </si>
-  <si>
-    <t>(수상하게 기분 좋은 냄새가 난다.)</t>
-  </si>
-  <si>
-    <t>(스토리 필드) : 수상한 편지 아이템을 클로즈업한 그림이 사라진다.</t>
-  </si>
-  <si>
-    <t>이게 뭐야?</t>
-  </si>
-  <si>
-    <t>하하! 혹여나 중간에 열어볼 생각은 하지 말고!</t>
-  </si>
-  <si>
-    <r>
-      <t>&lt;b&gt;밖으로 나갈 방법을 알게 된다면 그때 내게도 알려줘&lt;b/&gt;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Malgun Gothic"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t>.</t>
-    </r>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <t>내가 알고 있는 정보는 이래. &lt;b&gt;</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Malgun Gothic"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t>공사장 쪽에 항상 정신 못 차리는 고주&lt;b/&gt;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Malgun Gothic"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t>, 너도 봤지?</t>
-    </r>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>&lt;b&gt;‘수상한 편지’&lt;b/&gt;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Malgun Gothic"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t>를 획득하였다.</t>
-    </r>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;b&gt;&lt;시스템&gt;&lt;b/&gt;</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>&lt;b&gt;좋은 거&lt;b/&gt;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Malgun Gothic"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t>.</t>
-    </r>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>수상한편지:Add</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Npc들 인터랙션 변경</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Hold, -1</t>
+    <t>&lt;b&gt;&lt;시스템&gt;&lt;/b&gt;</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -5478,7 +5606,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="13">
+  <fonts count="15">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -5563,6 +5691,20 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="Malgun Gothic"/>
+      <family val="2"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="굴림"/>
+      <family val="2"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
       <family val="2"/>
       <charset val="129"/>
     </font>
@@ -5843,9 +5985,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="26" width="8.83203125" customWidth="1"/>
+    <col min="1" max="26" width="8.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="16.5" customHeight="1">
@@ -6926,19 +7068,19 @@
       <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="13.33203125" customWidth="1"/>
-    <col min="2" max="2" width="46.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="22.5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="22.83203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="19.6640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.28515625" customWidth="1"/>
+    <col min="2" max="2" width="46.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="22.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="18">
+    <row r="1" spans="1:6" ht="16.5">
       <c r="A1" s="3" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="B1" s="3"/>
       <c r="C1" s="3"/>
@@ -7008,10 +7150,10 @@
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="4" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="C5">
         <v>1</v>
@@ -7025,7 +7167,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="C6">
         <v>1</v>
@@ -7034,10 +7176,10 @@
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="4" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="C7">
         <v>1</v>
@@ -7045,10 +7187,10 @@
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="4" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="C8">
         <v>1</v>
@@ -7056,10 +7198,10 @@
     </row>
     <row r="9" spans="1:6">
       <c r="A9" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="B9" s="4" t="s">
         <v>110</v>
-      </c>
-      <c r="B9" s="4" t="s">
-        <v>115</v>
       </c>
       <c r="C9">
         <v>1</v>
@@ -7070,7 +7212,7 @@
         <v>19</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="C10">
         <v>1</v>
@@ -7079,10 +7221,10 @@
     </row>
     <row r="11" spans="1:6">
       <c r="A11" s="4" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="C11">
         <v>1</v>
@@ -7090,10 +7232,10 @@
     </row>
     <row r="12" spans="1:6">
       <c r="A12" s="4" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="C12">
         <v>1</v>
@@ -7131,23 +7273,23 @@
   <sheetPr codeName="Sheet11"/>
   <dimension ref="A1:F42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B20" zoomScale="135" workbookViewId="0">
-      <selection activeCell="F42" sqref="F42"/>
+    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="A35" sqref="A35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="17.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="107.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="22.5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="22.83203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="19.6640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="107.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="22.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="18">
+    <row r="1" spans="1:6" ht="16.5">
       <c r="A1" s="3" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="B1" s="3"/>
       <c r="C1" s="3"/>
@@ -7220,7 +7362,7 @@
         <v>22</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="C5">
         <v>1</v>
@@ -7246,7 +7388,7 @@
         <v>22</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="C7">
         <v>1</v>
@@ -7257,7 +7399,7 @@
         <v>19</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="C8">
         <v>1</v>
@@ -7268,7 +7410,7 @@
         <v>19</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="C9">
         <v>1</v>
@@ -7291,7 +7433,7 @@
         <v>22</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="C11">
         <v>1</v>
@@ -7302,7 +7444,7 @@
         <v>19</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C12">
         <v>1</v>
@@ -7313,7 +7455,7 @@
         <v>22</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="C13">
         <v>1</v>
@@ -7325,7 +7467,7 @@
         <v>19</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="C14">
         <v>1</v>
@@ -7337,7 +7479,7 @@
         <v>22</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="C15">
         <v>1</v>
@@ -7359,7 +7501,7 @@
         <v>19</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="C17">
         <v>1</v>
@@ -7370,7 +7512,7 @@
         <v>22</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="C18">
         <v>1</v>
@@ -7392,7 +7534,7 @@
         <v>22</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="C20">
         <v>1</v>
@@ -7403,7 +7545,7 @@
         <v>22</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="C21">
         <v>1</v>
@@ -7414,7 +7556,7 @@
         <v>19</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="C22">
         <v>1</v>
@@ -7425,7 +7567,7 @@
         <v>22</v>
       </c>
       <c r="B23" s="7" t="s">
-        <v>145</v>
+        <v>155</v>
       </c>
       <c r="C23">
         <v>1</v>
@@ -7436,7 +7578,7 @@
         <v>22</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="C24">
         <v>1</v>
@@ -7447,7 +7589,7 @@
         <v>19</v>
       </c>
       <c r="B25" s="6" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="C25">
         <v>1</v>
@@ -7458,7 +7600,7 @@
         <v>22</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="C26">
         <v>1</v>
@@ -7469,7 +7611,7 @@
         <v>22</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>146</v>
+        <v>156</v>
       </c>
       <c r="C27">
         <v>1</v>
@@ -7491,7 +7633,7 @@
         <v>22</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="C29">
         <v>1</v>
@@ -7502,7 +7644,7 @@
         <v>22</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="C30">
         <v>1</v>
@@ -7513,7 +7655,7 @@
         <v>22</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="C31">
         <v>1</v>
@@ -7524,7 +7666,7 @@
         <v>22</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="C32">
         <v>1</v>
@@ -7533,35 +7675,35 @@
     <row r="33" spans="1:6">
       <c r="A33" s="4"/>
       <c r="B33" s="4" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="C33">
         <v>6</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" ht="17">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" ht="16.5">
       <c r="A34" s="7" t="s">
-        <v>148</v>
+        <v>159</v>
       </c>
       <c r="B34" s="7" t="s">
-        <v>147</v>
+        <v>157</v>
       </c>
       <c r="C34">
         <v>1</v>
       </c>
       <c r="F34" s="10" t="s">
-        <v>150</v>
+        <v>140</v>
       </c>
     </row>
     <row r="35" spans="1:6">
       <c r="A35" s="7" t="s">
-        <v>148</v>
+        <v>159</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="C35">
         <v>1</v>
@@ -7570,13 +7712,13 @@
     <row r="36" spans="1:6">
       <c r="A36" s="4"/>
       <c r="B36" s="4" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="C36">
         <v>6</v>
       </c>
       <c r="F36" s="1" t="s">
-        <v>25</v>
+        <v>147</v>
       </c>
     </row>
     <row r="37" spans="1:6">
@@ -7584,7 +7726,7 @@
         <v>19</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="C37">
         <v>1</v>
@@ -7595,7 +7737,7 @@
         <v>22</v>
       </c>
       <c r="B38" s="7" t="s">
-        <v>149</v>
+        <v>158</v>
       </c>
       <c r="C38">
         <v>1</v>
@@ -7617,22 +7759,22 @@
         <v>22</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="C40">
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:6">
+    <row r="41" spans="1:6" ht="16.5">
       <c r="A41" s="4"/>
       <c r="B41" s="4" t="s">
-        <v>151</v>
+        <v>141</v>
       </c>
       <c r="C41">
         <v>6</v>
       </c>
       <c r="F41" s="1" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
     </row>
     <row r="42" spans="1:6">
@@ -7653,26 +7795,26 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr codeName="Sheet3"/>
-  <dimension ref="A1:Z989"/>
+  <dimension ref="A1:Z990"/>
   <sheetViews>
     <sheetView zoomScale="150" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="61.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="22.5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="22.83203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="19.6640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.6640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="26" width="8.83203125" customWidth="1"/>
+    <col min="1" max="1" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="61.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="22.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="26" width="8.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="17">
+    <row r="1" spans="1:16" ht="16.5">
       <c r="A1" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="P1" s="2"/>
     </row>
@@ -7739,19 +7881,25 @@
     <row r="5" spans="1:16">
       <c r="A5" s="4"/>
       <c r="B5" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C5">
-        <v>6</v>
+        <v>11</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>142</v>
       </c>
     </row>
     <row r="6" spans="1:16">
       <c r="A6" s="4"/>
       <c r="B6" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C6">
         <v>6</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>143</v>
       </c>
     </row>
     <row r="7" spans="1:16">
@@ -7759,7 +7907,7 @@
         <v>19</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C7">
         <v>1</v>
@@ -7781,7 +7929,7 @@
         <v>19</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C9">
         <v>1</v>
@@ -7791,19 +7939,25 @@
     <row r="10" spans="1:16" ht="16.5" customHeight="1">
       <c r="A10" s="4"/>
       <c r="B10" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C10">
         <v>6</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>149</v>
       </c>
     </row>
     <row r="11" spans="1:16" ht="16.5" customHeight="1">
       <c r="A11" s="4"/>
       <c r="B11" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C11">
         <v>6</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>150</v>
       </c>
     </row>
     <row r="12" spans="1:16" ht="16.5" customHeight="1">
@@ -7811,7 +7965,7 @@
         <v>19</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C12">
         <v>1</v>
@@ -7822,7 +7976,7 @@
         <v>19</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C13">
         <v>1</v>
@@ -7833,7 +7987,7 @@
         <v>19</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C14">
         <v>1</v>
@@ -7844,7 +7998,7 @@
         <v>19</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>38</v>
+        <v>152</v>
       </c>
       <c r="C15">
         <v>1</v>
@@ -7855,7 +8009,7 @@
         <v>19</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C16">
         <v>1</v>
@@ -7877,25 +8031,36 @@
         <v>19</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>37</v>
+        <v>151</v>
       </c>
       <c r="C18">
         <v>1</v>
       </c>
     </row>
     <row r="19" spans="1:6" ht="16.5" customHeight="1">
+      <c r="A19" s="4"/>
+      <c r="B19" s="4" t="s">
+        <v>144</v>
+      </c>
       <c r="C19">
+        <v>6</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" ht="16.5" customHeight="1">
+      <c r="C20">
         <v>11</v>
       </c>
-      <c r="F19" s="1" t="s">
+      <c r="F20" s="1" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="20" spans="1:6" ht="16.5" customHeight="1"/>
-    <row r="21" spans="1:6" ht="16.5" customHeight="1">
-      <c r="B21" s="3"/>
-    </row>
-    <row r="22" spans="1:6" ht="16.5" customHeight="1"/>
+    <row r="21" spans="1:6" ht="16.5" customHeight="1"/>
+    <row r="22" spans="1:6" ht="16.5" customHeight="1">
+      <c r="B22" s="3"/>
+    </row>
     <row r="23" spans="1:6" ht="16.5" customHeight="1"/>
     <row r="24" spans="1:6" ht="16.5" customHeight="1"/>
     <row r="25" spans="1:6" ht="16.5" customHeight="1"/>
@@ -7909,33 +8074,7 @@
     <row r="33" spans="1:26" ht="16.5" customHeight="1"/>
     <row r="34" spans="1:26" ht="16.5" customHeight="1"/>
     <row r="35" spans="1:26" ht="16.5" customHeight="1"/>
-    <row r="36" spans="1:26" ht="16.5" customHeight="1">
-      <c r="A36" s="3"/>
-      <c r="C36" s="3"/>
-      <c r="D36" s="3"/>
-      <c r="E36" s="3"/>
-      <c r="F36" s="3"/>
-      <c r="G36" s="3"/>
-      <c r="H36" s="3"/>
-      <c r="I36" s="3"/>
-      <c r="J36" s="3"/>
-      <c r="K36" s="3"/>
-      <c r="L36" s="3"/>
-      <c r="M36" s="3"/>
-      <c r="N36" s="3"/>
-      <c r="O36" s="3"/>
-      <c r="P36" s="3"/>
-      <c r="Q36" s="3"/>
-      <c r="R36" s="3"/>
-      <c r="S36" s="3"/>
-      <c r="T36" s="3"/>
-      <c r="U36" s="3"/>
-      <c r="V36" s="3"/>
-      <c r="W36" s="3"/>
-      <c r="X36" s="3"/>
-      <c r="Y36" s="3"/>
-      <c r="Z36" s="3"/>
-    </row>
+    <row r="36" spans="1:26" ht="16.5" customHeight="1"/>
     <row r="37" spans="1:26" ht="16.5" customHeight="1">
       <c r="A37" s="3"/>
       <c r="C37" s="3"/>
@@ -7964,7 +8103,31 @@
       <c r="Z37" s="3"/>
     </row>
     <row r="38" spans="1:26" ht="16.5" customHeight="1">
-      <c r="B38" s="3"/>
+      <c r="A38" s="3"/>
+      <c r="C38" s="3"/>
+      <c r="D38" s="3"/>
+      <c r="E38" s="3"/>
+      <c r="F38" s="3"/>
+      <c r="G38" s="3"/>
+      <c r="H38" s="3"/>
+      <c r="I38" s="3"/>
+      <c r="J38" s="3"/>
+      <c r="K38" s="3"/>
+      <c r="L38" s="3"/>
+      <c r="M38" s="3"/>
+      <c r="N38" s="3"/>
+      <c r="O38" s="3"/>
+      <c r="P38" s="3"/>
+      <c r="Q38" s="3"/>
+      <c r="R38" s="3"/>
+      <c r="S38" s="3"/>
+      <c r="T38" s="3"/>
+      <c r="U38" s="3"/>
+      <c r="V38" s="3"/>
+      <c r="W38" s="3"/>
+      <c r="X38" s="3"/>
+      <c r="Y38" s="3"/>
+      <c r="Z38" s="3"/>
     </row>
     <row r="39" spans="1:26" ht="16.5" customHeight="1">
       <c r="B39" s="3"/>
@@ -8008,29 +8171,31 @@
     <row r="52" spans="2:2" ht="16.5" customHeight="1">
       <c r="B52" s="3"/>
     </row>
-    <row r="53" spans="2:2" ht="16.5" customHeight="1"/>
+    <row r="53" spans="2:2" ht="16.5" customHeight="1">
+      <c r="B53" s="3"/>
+    </row>
     <row r="54" spans="2:2" ht="16.5" customHeight="1"/>
-    <row r="55" spans="2:2" ht="16.5" customHeight="1">
-      <c r="B55" s="3"/>
-    </row>
+    <row r="55" spans="2:2" ht="16.5" customHeight="1"/>
     <row r="56" spans="2:2" ht="16.5" customHeight="1">
       <c r="B56" s="3"/>
     </row>
     <row r="57" spans="2:2" ht="16.5" customHeight="1">
       <c r="B57" s="3"/>
     </row>
-    <row r="58" spans="2:2" ht="16.5" customHeight="1"/>
+    <row r="58" spans="2:2" ht="16.5" customHeight="1">
+      <c r="B58" s="3"/>
+    </row>
     <row r="59" spans="2:2" ht="16.5" customHeight="1"/>
-    <row r="60" spans="2:2" ht="16.5" customHeight="1">
-      <c r="B60" s="3"/>
-    </row>
+    <row r="60" spans="2:2" ht="16.5" customHeight="1"/>
     <row r="61" spans="2:2" ht="16.5" customHeight="1">
       <c r="B61" s="3"/>
     </row>
     <row r="62" spans="2:2" ht="16.5" customHeight="1">
       <c r="B62" s="3"/>
     </row>
-    <row r="63" spans="2:2" ht="16.5" customHeight="1"/>
+    <row r="63" spans="2:2" ht="16.5" customHeight="1">
+      <c r="B63" s="3"/>
+    </row>
     <row r="64" spans="2:2" ht="16.5" customHeight="1"/>
     <row r="65" ht="16.5" customHeight="1"/>
     <row r="66" ht="16.5" customHeight="1"/>
@@ -8957,6 +9122,7 @@
     <row r="987" ht="16.5" customHeight="1"/>
     <row r="988" ht="16.5" customHeight="1"/>
     <row r="989" ht="16.5" customHeight="1"/>
+    <row r="990" ht="16.5" customHeight="1"/>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
@@ -8971,22 +9137,22 @@
   <dimension ref="A1:P976"/>
   <sheetViews>
     <sheetView zoomScale="140" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="9.83203125" customWidth="1"/>
+    <col min="1" max="1" width="9.85546875" customWidth="1"/>
     <col min="2" max="2" width="89" customWidth="1"/>
     <col min="3" max="4" width="25" customWidth="1"/>
-    <col min="5" max="5" width="21.5" customWidth="1"/>
-    <col min="6" max="6" width="9.5" customWidth="1"/>
-    <col min="7" max="26" width="8.83203125" customWidth="1"/>
+    <col min="5" max="5" width="21.42578125" customWidth="1"/>
+    <col min="6" max="6" width="9.42578125" customWidth="1"/>
+    <col min="7" max="26" width="8.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="16.5" customHeight="1">
       <c r="A1" s="1" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="P1" s="2"/>
     </row>
@@ -9055,7 +9221,7 @@
         <v>19</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C5" s="4">
         <v>1</v>
@@ -9066,10 +9232,10 @@
     </row>
     <row r="6" spans="1:16" ht="16.5" customHeight="1">
       <c r="A6" s="4" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="C6" s="4">
         <v>1</v>
@@ -9083,7 +9249,7 @@
         <v>19</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="C7" s="4">
         <v>1</v>
@@ -9097,7 +9263,7 @@
         <v>19</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="C8" s="4">
         <v>1</v>
@@ -9111,7 +9277,7 @@
         <v>24</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="C9" s="4">
         <v>1</v>
@@ -9125,7 +9291,7 @@
         <v>24</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="C10" s="4">
         <v>1</v>
@@ -9136,10 +9302,10 @@
     </row>
     <row r="11" spans="1:16" ht="16.5" customHeight="1">
       <c r="A11" s="4" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="C11" s="4">
         <v>1</v>
@@ -9153,7 +9319,7 @@
         <v>24</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="C12" s="4">
         <v>1</v>
@@ -9164,10 +9330,10 @@
     </row>
     <row r="13" spans="1:16" ht="16.5" customHeight="1">
       <c r="A13" s="4" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="C13" s="4">
         <v>1</v>
@@ -9192,7 +9358,7 @@
     </row>
     <row r="15" spans="1:16" ht="16.5" customHeight="1">
       <c r="A15" s="4" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="B15" s="6" t="s">
         <v>18</v>
@@ -9206,10 +9372,10 @@
     </row>
     <row r="16" spans="1:16" ht="16.5" customHeight="1">
       <c r="A16" s="4" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>53</v>
+        <v>153</v>
       </c>
       <c r="C16" s="4">
         <v>1</v>
@@ -9223,7 +9389,7 @@
         <v>19</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>52</v>
+        <v>154</v>
       </c>
       <c r="C17" s="4">
         <v>1</v>
@@ -9234,10 +9400,10 @@
     </row>
     <row r="18" spans="1:6" ht="16.5" customHeight="1">
       <c r="A18" s="4" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="C18" s="4">
         <v>1</v>
@@ -9251,7 +9417,7 @@
         <v>19</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="C19" s="4">
         <v>1</v>
@@ -10285,19 +10451,19 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="7.5" customWidth="1"/>
-    <col min="2" max="2" width="30.83203125" customWidth="1"/>
+    <col min="1" max="1" width="7.42578125" customWidth="1"/>
+    <col min="2" max="2" width="30.85546875" customWidth="1"/>
     <col min="3" max="4" width="25" customWidth="1"/>
-    <col min="5" max="5" width="21.5" customWidth="1"/>
-    <col min="6" max="6" width="9.5" customWidth="1"/>
-    <col min="7" max="26" width="8.6640625" customWidth="1"/>
+    <col min="5" max="5" width="21.42578125" customWidth="1"/>
+    <col min="6" max="6" width="9.42578125" customWidth="1"/>
+    <col min="7" max="26" width="8.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="16.5" customHeight="1">
       <c r="A1" s="1" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="16.5" customHeight="1">
@@ -10365,7 +10531,7 @@
         <v>24</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="C5" s="1">
         <v>1</v>
@@ -10378,7 +10544,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="C6" s="1">
         <v>1</v>
@@ -10390,7 +10556,7 @@
         <v>19</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="C7" s="1">
         <v>1</v>
@@ -11410,23 +11576,23 @@
   <dimension ref="A1:F999"/>
   <sheetViews>
     <sheetView zoomScale="142" workbookViewId="0">
-      <selection activeCell="B22" sqref="A1:F23"/>
+      <selection activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="7.5" customWidth="1"/>
-    <col min="2" max="2" width="118.5" customWidth="1"/>
-    <col min="3" max="3" width="22.5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="22.83203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="19.6640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.6640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="26" width="8.6640625" customWidth="1"/>
+    <col min="1" max="1" width="7.42578125" customWidth="1"/>
+    <col min="2" max="2" width="118.42578125" customWidth="1"/>
+    <col min="3" max="3" width="22.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="22.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="26" width="8.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="36">
+    <row r="1" spans="1:6" ht="33">
       <c r="A1" s="3" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="B1" s="3"/>
       <c r="C1" s="3"/>
@@ -11499,7 +11665,7 @@
         <v>19</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="C5" s="1">
         <v>1</v>
@@ -11512,7 +11678,7 @@
         <v>23</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="C6" s="1">
         <v>1</v>
@@ -11524,7 +11690,7 @@
         <v>19</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="C7" s="1">
         <v>1</v>
@@ -11536,7 +11702,7 @@
         <v>23</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="C8" s="1">
         <v>1</v>
@@ -11548,7 +11714,7 @@
         <v>19</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="C9" s="1">
         <v>1</v>
@@ -11559,7 +11725,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="C10" s="1">
         <v>1</v>
@@ -11571,7 +11737,7 @@
         <v>19</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="C11">
         <v>1</v>
@@ -11582,7 +11748,7 @@
         <v>23</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="C12">
         <v>1</v>
@@ -11604,7 +11770,7 @@
         <v>23</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="C14">
         <v>1</v>
@@ -11616,7 +11782,7 @@
         <v>23</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="C15">
         <v>1</v>
@@ -11627,7 +11793,7 @@
         <v>23</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="C16">
         <v>1</v>
@@ -11639,7 +11805,7 @@
         <v>23</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="C17">
         <v>1</v>
@@ -11662,7 +11828,7 @@
         <v>19</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="C19">
         <v>1</v>
@@ -11673,7 +11839,7 @@
         <v>23</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="C20">
         <v>1</v>
@@ -11684,7 +11850,7 @@
         <v>19</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="C21">
         <v>1</v>
@@ -11695,7 +11861,7 @@
         <v>23</v>
       </c>
       <c r="B22" s="6" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="C22">
         <v>1</v>
@@ -12702,20 +12868,20 @@
       <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="11.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="62.83203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="22.5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="22.83203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="19.6640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.6640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="26" width="8.6640625" customWidth="1"/>
+    <col min="1" max="1" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="62.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="22.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="26" width="8.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="18">
+    <row r="1" spans="1:6" ht="16.5">
       <c r="A1" s="3" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="B1" s="3"/>
       <c r="C1" s="3"/>
@@ -12788,7 +12954,7 @@
         <v>19</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="C5">
         <v>1</v>
@@ -12801,7 +12967,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="C6">
         <v>1</v>
@@ -12812,7 +12978,7 @@
         <v>19</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="C7">
         <v>1</v>
@@ -12822,7 +12988,7 @@
     <row r="8" spans="1:6">
       <c r="A8" s="4"/>
       <c r="B8" s="4" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="C8">
         <v>2</v>
@@ -12830,10 +12996,10 @@
     </row>
     <row r="9" spans="1:6">
       <c r="A9" s="4" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="C9">
         <v>1</v>
@@ -12845,7 +13011,7 @@
         <v>19</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="C10">
         <v>1</v>
@@ -12853,7 +13019,7 @@
     </row>
     <row r="11" spans="1:6" ht="16.5" customHeight="1">
       <c r="B11" s="4" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="C11">
         <v>2</v>
@@ -12861,10 +13027,10 @@
     </row>
     <row r="12" spans="1:6" ht="16.5" customHeight="1">
       <c r="A12" s="1" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="C12">
         <v>1</v>
@@ -12872,10 +13038,10 @@
     </row>
     <row r="13" spans="1:6" ht="16.5" customHeight="1">
       <c r="A13" s="1" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="C13">
         <v>1</v>
@@ -12893,7 +13059,7 @@
         <v>19</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="C15">
         <v>1</v>
@@ -13909,19 +14075,19 @@
       <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="9.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="64.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="22.83203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="23.1640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="64.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="23.140625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="20" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.83203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="18">
+    <row r="1" spans="1:6" ht="16.5">
       <c r="A1" s="3" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="B1" s="3"/>
       <c r="C1" s="3"/>
@@ -13991,10 +14157,10 @@
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="4" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="C5">
         <v>1</v>
@@ -14005,7 +14171,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="C6">
         <v>1</v>
@@ -14017,7 +14183,7 @@
         <v>19</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="C7">
         <v>1</v>
@@ -14025,10 +14191,10 @@
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="4" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="C8">
         <v>1</v>
@@ -14039,7 +14205,7 @@
         <v>19</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="C9">
         <v>1</v>
@@ -14047,10 +14213,10 @@
     </row>
     <row r="10" spans="1:6">
       <c r="A10" s="4" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="C10">
         <v>1</v>
@@ -14069,10 +14235,10 @@
     </row>
     <row r="12" spans="1:6">
       <c r="A12" s="4" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="C12">
         <v>1</v>
@@ -14080,10 +14246,10 @@
     </row>
     <row r="13" spans="1:6">
       <c r="A13" s="4" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="C13">
         <v>1</v>
@@ -14091,10 +14257,10 @@
     </row>
     <row r="14" spans="1:6">
       <c r="A14" s="4" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="C14">
         <v>1</v>
@@ -14106,7 +14272,7 @@
         <v>19</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="C15">
         <v>1</v>
@@ -14114,10 +14280,10 @@
     </row>
     <row r="16" spans="1:6">
       <c r="A16" s="4" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="C16">
         <v>1</v>
@@ -14136,10 +14302,10 @@
     </row>
     <row r="18" spans="1:6">
       <c r="A18" s="4" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="C18">
         <v>1</v>
@@ -14250,19 +14416,19 @@
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="13.33203125" customWidth="1"/>
-    <col min="2" max="2" width="46.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="22.5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="22.83203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="19.6640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.28515625" customWidth="1"/>
+    <col min="2" max="2" width="46.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="22.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="18">
+    <row r="1" spans="1:6" ht="16.5">
       <c r="A1" s="3" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="B1" s="3"/>
       <c r="C1" s="3"/>
@@ -14335,7 +14501,7 @@
         <v>19</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="C5">
         <v>1</v>
@@ -14373,19 +14539,19 @@
       <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="13.33203125" customWidth="1"/>
-    <col min="2" max="2" width="46.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="22.5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="22.83203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="19.6640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.28515625" customWidth="1"/>
+    <col min="2" max="2" width="46.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="22.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="18">
+    <row r="1" spans="1:6" ht="16.5">
       <c r="A1" s="3" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="B1" s="3"/>
       <c r="C1" s="3"/>
@@ -14455,10 +14621,10 @@
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="4" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="C5">
         <v>1</v>
@@ -14484,7 +14650,7 @@
         <v>19</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="C7">
         <v>1</v>
@@ -14492,10 +14658,10 @@
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="4" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="C8">
         <v>1</v>
@@ -14506,7 +14672,7 @@
         <v>19</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="C9">
         <v>1</v>
